--- a/data/trans_dic/P36BPD04_R_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R_2023-Edad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7027971597565617</v>
+        <v>0.7027971597565619</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.6832969868918649</v>
+        <v>0.683296986891865</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6936202157771193</v>
+        <v>0.6936202157771191</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6235665412215852</v>
+        <v>0.6311891169823457</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6127328581107975</v>
+        <v>0.6202578072144906</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.642095333694564</v>
+        <v>0.6407405175510478</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7729176411295932</v>
+        <v>0.7698738004495279</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7482187055824439</v>
+        <v>0.7500816680472777</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7414127175115718</v>
+        <v>0.7409360535788354</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.6904530884809534</v>
+        <v>0.6904530884809535</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.7368593528292524</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7142302130968268</v>
+        <v>0.7142302130968267</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6313171492429297</v>
+        <v>0.6321541970757948</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6956654417227205</v>
+        <v>0.691009010005854</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6775217077296545</v>
+        <v>0.678937153161286</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7413300342778492</v>
+        <v>0.7450714207544421</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7802826257990602</v>
+        <v>0.7765181845114605</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7445274041316294</v>
+        <v>0.7463880532133395</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.745504826663702</v>
+        <v>0.7455048266637018</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.7808055122214316</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7106534462713886</v>
+        <v>0.7077770910097988</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7519935534182771</v>
+        <v>0.7505205373846464</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7380305564296481</v>
+        <v>0.7403904454472251</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7821103028280866</v>
+        <v>0.7828230561345086</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.808834891987962</v>
+        <v>0.8083256000563608</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7864256224549281</v>
+        <v>0.7866089589229848</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.7475103601539625</v>
+        <v>0.7475103601539624</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.7909067936559837</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7157175179982166</v>
+        <v>0.7138748378452665</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7681075794542834</v>
+        <v>0.7675259957455657</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7487715683573926</v>
+        <v>0.7480959143022976</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7777806466982076</v>
+        <v>0.7815457628124661</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8147944474079052</v>
+        <v>0.8157177313111269</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7895735606611468</v>
+        <v>0.788376934840769</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7930043054780322</v>
+        <v>0.7930043054780321</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.8211790887230879</v>
+        <v>0.8211790887230883</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8070922968472365</v>
+        <v>0.8070922968472366</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7585859403011741</v>
+        <v>0.7637734079903358</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7972304699516785</v>
+        <v>0.798088384273676</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7864011270324611</v>
+        <v>0.7880732381012537</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8214309578308688</v>
+        <v>0.8274269143779085</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8455220680316344</v>
+        <v>0.8457396627655569</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8278974997353781</v>
+        <v>0.8273778858275344</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.8094310417834053</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.8683745443641285</v>
+        <v>0.8683745443641286</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8399637115241343</v>
+        <v>0.8399637115241344</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7741531671290962</v>
+        <v>0.7743310941127119</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8440826385328621</v>
+        <v>0.8457950086508509</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8173955239538173</v>
+        <v>0.8191124750408584</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8410741715364795</v>
+        <v>0.8434539819149034</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8893322874324106</v>
+        <v>0.8903460696675981</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8607079757329116</v>
+        <v>0.8592956817754629</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.8457447478744206</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8546271545162373</v>
+        <v>0.8546271545162372</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8323339498924883</v>
+        <v>0.8301471957090312</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8178917503674481</v>
+        <v>0.8193340461456156</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8345866342018297</v>
+        <v>0.8334910934834787</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8970795126008246</v>
+        <v>0.8938829902904002</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8687403927906781</v>
+        <v>0.8688664267226391</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8722807641024692</v>
+        <v>0.8718379878964835</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         <v>0.759843548727047</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.7923500154718549</v>
+        <v>0.7923500154718548</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.776546887677106</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7441234551250635</v>
+        <v>0.7438892186784272</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.7792628773010393</v>
+        <v>0.7790793578075638</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7661331051691534</v>
+        <v>0.7659307950908738</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7758259766649906</v>
+        <v>0.776387560975671</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8043776058370031</v>
+        <v>0.8040748818248217</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7867302575493307</v>
+        <v>0.7868303033387067</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>254286</v>
+        <v>257395</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>222123</v>
+        <v>224851</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>494609</v>
+        <v>493566</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>315190</v>
+        <v>313949</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>271238</v>
+        <v>271914</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>571114</v>
+        <v>570747</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>301069</v>
+        <v>301468</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>348586</v>
+        <v>346253</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>662598</v>
+        <v>663982</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>353533</v>
+        <v>355317</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>390986</v>
+        <v>389100</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>728128</v>
+        <v>729947</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>440405</v>
+        <v>438623</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>467845</v>
+        <v>466928</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>916529</v>
+        <v>919460</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>484689</v>
+        <v>485130</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>503208</v>
+        <v>502891</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>976629</v>
+        <v>976857</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>501444</v>
+        <v>500153</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>565278</v>
+        <v>564850</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1075650</v>
+        <v>1074679</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>544926</v>
+        <v>547564</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>599637</v>
+        <v>600316</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1134264</v>
+        <v>1132545</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>461421</v>
+        <v>464577</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>484968</v>
+        <v>485490</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>956721</v>
+        <v>958755</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>499648</v>
+        <v>503295</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>514345</v>
+        <v>514477</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1007204</v>
+        <v>1006572</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>315142</v>
+        <v>315215</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>369271</v>
+        <v>370020</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>690341</v>
+        <v>691791</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>342384</v>
+        <v>343353</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>389067</v>
+        <v>389510</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>726921</v>
+        <v>725728</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>258188</v>
+        <v>257510</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>379673</v>
+        <v>380342</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>646310</v>
+        <v>645461</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>278272</v>
+        <v>277281</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>403277</v>
+        <v>403336</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>675500</v>
+        <v>675157</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2627174</v>
+        <v>2626347</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2907958</v>
+        <v>2907273</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>5563842</v>
+        <v>5562373</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2739102</v>
+        <v>2741084</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3001678</v>
+        <v>3000549</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>5713424</v>
+        <v>5714151</v>
       </c>
     </row>
     <row r="36">
